--- a/data/trans_bre/MCS12_SP_R3-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/MCS12_SP_R3-Estudios-trans_bre.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>11,94</t>
+          <t>11,89</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>42,01%</t>
+          <t>43,05%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,58; 16,63</t>
+          <t>7,57; 16,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>23,84; 64,67</t>
+          <t>24,68; 66,96</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>10,08</t>
+          <t>14,34</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>56,22%</t>
+          <t>90,16%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,47; 23,36</t>
+          <t>5,79; 36,49</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>28,54; 135,51</t>
+          <t>34,56; 309,87</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,46</t>
+          <t>4,01</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>23,15%</t>
+          <t>20,48%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,52; 8,6</t>
+          <t>-0,75; 8,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,12; 50,57</t>
+          <t>-3,69; 49,77</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,03</t>
+          <t>12,61</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>50,47%</t>
+          <t>68,75%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,36; 17,85</t>
+          <t>7,51; 27,18</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>35,17; 91,78</t>
+          <t>38,53; 168,61</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/MCS12_SP_R3-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/MCS12_SP_R3-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,89; 9,25</t>
+          <t>1,81; 9,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,23; 14,42</t>
+          <t>5,74; 13,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,14; 17,06</t>
+          <t>8,01; 16,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,57; 16,48</t>
+          <t>7,25; 16,6</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,15; 37,33</t>
+          <t>6,57; 38,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>19,18; 52,41</t>
+          <t>18,22; 49,79</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>27,63; 71,71</t>
+          <t>28,18; 70,4</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>24,68; 66,96</t>
+          <t>23,8; 67,56</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,8; 11,64</t>
+          <t>5,81; 11,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,86; 12,19</t>
+          <t>6,35; 12,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,89; 8,03</t>
+          <t>2,96; 8,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,79; 36,49</t>
+          <t>5,66; 35,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>36,7; 87,6</t>
+          <t>36,83; 84,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>30,59; 61,42</t>
+          <t>28,87; 63,89</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,58; 52,19</t>
+          <t>16,28; 51,13</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>34,56; 309,87</t>
+          <t>32,13; 286,89</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,08; 12,19</t>
+          <t>1,43; 11,12</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,04; 13,26</t>
+          <t>2,83; 13,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 9,22</t>
+          <t>-0,58; 9,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 8,3</t>
+          <t>-0,91; 8,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10,86; 93,68</t>
+          <t>6,96; 84,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>19,58; 126,37</t>
+          <t>17,19; 130,26</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 67,83</t>
+          <t>-3,66; 69,63</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 49,77</t>
+          <t>-4,77; 46,84</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,82; 9,85</t>
+          <t>5,65; 9,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,17; 12,42</t>
+          <t>8,25; 12,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,84; 9,99</t>
+          <t>6,03; 9,94</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,51; 27,18</t>
+          <t>7,35; 27,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>29,39; 56,26</t>
+          <t>28,56; 56,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>34,77; 58,59</t>
+          <t>34,78; 59,51</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>29,58; 56,33</t>
+          <t>30,47; 55,36</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>38,53; 168,61</t>
+          <t>38,38; 169,87</t>
         </is>
       </c>
     </row>
